--- a/SiouxFallNet/processdata.xlsx
+++ b/SiouxFallNet/processdata.xlsx
@@ -3,22 +3,28 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06B4C80A-0943-401B-AB16-4D10D99230C6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4BC6CF8-B6BC-4B60-8E4B-2B95C5704D86}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2490" yWindow="2490" windowWidth="17280" windowHeight="9465" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2490" yWindow="2490" windowWidth="17280" windowHeight="9465" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sheet3!$A$1:$C$529</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -35,12 +41,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -55,8 +67,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6786,8 +6799,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A2:C529"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24:C510"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B550" sqref="B550"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12610,4 +12623,1235 @@
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75E49342-CB41-4D63-8F17-CBB17456BADA}">
+  <dimension ref="A1:D76"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38:B39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1">
+        <f>A1+1</f>
+        <v>1</v>
+      </c>
+      <c r="D1">
+        <f>B1+1</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <f t="shared" ref="C2:C65" si="0">A2+1</f>
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <f t="shared" ref="D2:D65" si="1">B2+1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>5</v>
+      </c>
+      <c r="C4">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7">
+        <v>11</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>3</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>3</v>
+      </c>
+      <c r="B9">
+        <v>4</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>3</v>
+      </c>
+      <c r="B10">
+        <v>10</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>4</v>
+      </c>
+      <c r="B11">
+        <v>3</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>4</v>
+      </c>
+      <c r="B12">
+        <v>5</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>4</v>
+      </c>
+      <c r="B13">
+        <v>8</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>5</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>5</v>
+      </c>
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>5</v>
+      </c>
+      <c r="B16">
+        <v>7</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>6</v>
+      </c>
+      <c r="B17">
+        <v>7</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>6</v>
+      </c>
+      <c r="B18">
+        <v>17</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>7</v>
+      </c>
+      <c r="B19">
+        <v>5</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>7</v>
+      </c>
+      <c r="B20">
+        <v>6</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>7</v>
+      </c>
+      <c r="B21">
+        <v>8</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>7</v>
+      </c>
+      <c r="B22">
+        <v>15</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>8</v>
+      </c>
+      <c r="B23">
+        <v>4</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>8</v>
+      </c>
+      <c r="B24">
+        <v>7</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>8</v>
+      </c>
+      <c r="B25">
+        <v>9</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>9</v>
+      </c>
+      <c r="B26">
+        <v>8</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>9</v>
+      </c>
+      <c r="B27">
+        <v>10</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>9</v>
+      </c>
+      <c r="B28">
+        <v>14</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>9</v>
+      </c>
+      <c r="B29">
+        <v>15</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>9</v>
+      </c>
+      <c r="B30">
+        <v>16</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>10</v>
+      </c>
+      <c r="B31">
+        <v>3</v>
+      </c>
+      <c r="C31">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>10</v>
+      </c>
+      <c r="B32">
+        <v>9</v>
+      </c>
+      <c r="C32">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>10</v>
+      </c>
+      <c r="B33">
+        <v>11</v>
+      </c>
+      <c r="C33">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>10</v>
+      </c>
+      <c r="B34">
+        <v>13</v>
+      </c>
+      <c r="C34">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>11</v>
+      </c>
+      <c r="B35">
+        <v>2</v>
+      </c>
+      <c r="C35">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>11</v>
+      </c>
+      <c r="B36">
+        <v>10</v>
+      </c>
+      <c r="C36">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>11</v>
+      </c>
+      <c r="B37">
+        <v>12</v>
+      </c>
+      <c r="C37">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>12</v>
+      </c>
+      <c r="B38" s="1">
+        <v>11</v>
+      </c>
+      <c r="C38" s="1">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="D38" s="1">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>12</v>
+      </c>
+      <c r="B39" s="1">
+        <v>23</v>
+      </c>
+      <c r="C39" s="1">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="D39" s="1">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>13</v>
+      </c>
+      <c r="B40">
+        <v>10</v>
+      </c>
+      <c r="C40">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="D40">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>13</v>
+      </c>
+      <c r="B41">
+        <v>14</v>
+      </c>
+      <c r="C41">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="D41">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>13</v>
+      </c>
+      <c r="B42">
+        <v>22</v>
+      </c>
+      <c r="C42">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="D42">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>14</v>
+      </c>
+      <c r="B43">
+        <v>9</v>
+      </c>
+      <c r="C43">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="D43">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>14</v>
+      </c>
+      <c r="B44">
+        <v>13</v>
+      </c>
+      <c r="C44">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="D44">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>14</v>
+      </c>
+      <c r="B45">
+        <v>18</v>
+      </c>
+      <c r="C45">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="D45">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>14</v>
+      </c>
+      <c r="B46">
+        <v>21</v>
+      </c>
+      <c r="C46">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="D46">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>15</v>
+      </c>
+      <c r="B47">
+        <v>7</v>
+      </c>
+      <c r="C47">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="D47">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>15</v>
+      </c>
+      <c r="B48">
+        <v>9</v>
+      </c>
+      <c r="C48">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="D48">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>15</v>
+      </c>
+      <c r="B49">
+        <v>16</v>
+      </c>
+      <c r="C49">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="D49">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>15</v>
+      </c>
+      <c r="B50">
+        <v>17</v>
+      </c>
+      <c r="C50">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="D50">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>16</v>
+      </c>
+      <c r="B51">
+        <v>9</v>
+      </c>
+      <c r="C51">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="D51">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>16</v>
+      </c>
+      <c r="B52">
+        <v>15</v>
+      </c>
+      <c r="C52">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="D52">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>16</v>
+      </c>
+      <c r="B53">
+        <v>18</v>
+      </c>
+      <c r="C53">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="D53">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>17</v>
+      </c>
+      <c r="B54">
+        <v>6</v>
+      </c>
+      <c r="C54">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="D54">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>17</v>
+      </c>
+      <c r="B55">
+        <v>15</v>
+      </c>
+      <c r="C55">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="D55">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>17</v>
+      </c>
+      <c r="B56">
+        <v>19</v>
+      </c>
+      <c r="C56">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="D56">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>18</v>
+      </c>
+      <c r="B57">
+        <v>14</v>
+      </c>
+      <c r="C57">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="D57">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>18</v>
+      </c>
+      <c r="B58">
+        <v>16</v>
+      </c>
+      <c r="C58">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="D58">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>18</v>
+      </c>
+      <c r="B59">
+        <v>19</v>
+      </c>
+      <c r="C59">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="D59">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>19</v>
+      </c>
+      <c r="B60">
+        <v>17</v>
+      </c>
+      <c r="C60">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="D60">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>19</v>
+      </c>
+      <c r="B61">
+        <v>18</v>
+      </c>
+      <c r="C61">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="D61">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>19</v>
+      </c>
+      <c r="B62">
+        <v>20</v>
+      </c>
+      <c r="C62">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="D62">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>19</v>
+      </c>
+      <c r="B63">
+        <v>21</v>
+      </c>
+      <c r="C63">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="D63">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>20</v>
+      </c>
+      <c r="B64">
+        <v>19</v>
+      </c>
+      <c r="C64">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="D64">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>20</v>
+      </c>
+      <c r="B65">
+        <v>21</v>
+      </c>
+      <c r="C65">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="D65">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>20</v>
+      </c>
+      <c r="B66">
+        <v>23</v>
+      </c>
+      <c r="C66">
+        <f t="shared" ref="C66:C76" si="2">A66+1</f>
+        <v>21</v>
+      </c>
+      <c r="D66">
+        <f t="shared" ref="D66:D76" si="3">B66+1</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>21</v>
+      </c>
+      <c r="B67">
+        <v>14</v>
+      </c>
+      <c r="C67">
+        <f t="shared" si="2"/>
+        <v>22</v>
+      </c>
+      <c r="D67">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>21</v>
+      </c>
+      <c r="B68">
+        <v>19</v>
+      </c>
+      <c r="C68">
+        <f t="shared" si="2"/>
+        <v>22</v>
+      </c>
+      <c r="D68">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>21</v>
+      </c>
+      <c r="B69">
+        <v>20</v>
+      </c>
+      <c r="C69">
+        <f t="shared" si="2"/>
+        <v>22</v>
+      </c>
+      <c r="D69">
+        <f t="shared" si="3"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>21</v>
+      </c>
+      <c r="B70">
+        <v>22</v>
+      </c>
+      <c r="C70">
+        <f t="shared" si="2"/>
+        <v>22</v>
+      </c>
+      <c r="D70">
+        <f t="shared" si="3"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>22</v>
+      </c>
+      <c r="B71">
+        <v>13</v>
+      </c>
+      <c r="C71">
+        <f t="shared" si="2"/>
+        <v>23</v>
+      </c>
+      <c r="D71">
+        <f t="shared" si="3"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>22</v>
+      </c>
+      <c r="B72">
+        <v>21</v>
+      </c>
+      <c r="C72">
+        <f t="shared" si="2"/>
+        <v>23</v>
+      </c>
+      <c r="D72">
+        <f t="shared" si="3"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>22</v>
+      </c>
+      <c r="B73">
+        <v>23</v>
+      </c>
+      <c r="C73">
+        <f t="shared" si="2"/>
+        <v>23</v>
+      </c>
+      <c r="D73">
+        <f t="shared" si="3"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>23</v>
+      </c>
+      <c r="B74">
+        <v>12</v>
+      </c>
+      <c r="C74">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="D74">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>23</v>
+      </c>
+      <c r="B75">
+        <v>20</v>
+      </c>
+      <c r="C75">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="D75">
+        <f t="shared" si="3"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>23</v>
+      </c>
+      <c r="B76">
+        <v>22</v>
+      </c>
+      <c r="C76">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="D76">
+        <f t="shared" si="3"/>
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/SiouxFallNet/processdata.xlsx
+++ b/SiouxFallNet/processdata.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4BC6CF8-B6BC-4B60-8E4B-2B95C5704D86}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9C502D6-217B-4898-9F39-044E820C6758}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2490" yWindow="2490" windowWidth="17280" windowHeight="9465" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,9 +14,10 @@
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$A$1:$C$528</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sheet3!$A$1:$C$529</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -973,10 +974,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{336D24E8-02E1-41E8-AF8F-3965CCEE3D98}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:C528"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22:C528"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -992,7 +994,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1003,7 +1005,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0</v>
       </c>
@@ -1014,7 +1016,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0</v>
       </c>
@@ -1025,7 +1027,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>0</v>
       </c>
@@ -1036,7 +1038,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>0</v>
       </c>
@@ -1047,7 +1049,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>0</v>
       </c>
@@ -1058,7 +1060,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>0</v>
       </c>
@@ -1069,7 +1071,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>0</v>
       </c>
@@ -1080,7 +1082,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>0</v>
       </c>
@@ -1091,7 +1093,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>0</v>
       </c>
@@ -1102,7 +1104,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>0</v>
       </c>
@@ -1113,7 +1115,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>0</v>
       </c>
@@ -1124,7 +1126,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>0</v>
       </c>
@@ -1135,7 +1137,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>0</v>
       </c>
@@ -1146,7 +1148,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>0</v>
       </c>
@@ -1157,7 +1159,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>0</v>
       </c>
@@ -1168,7 +1170,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>0</v>
       </c>
@@ -1179,7 +1181,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>0</v>
       </c>
@@ -1190,7 +1192,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>0</v>
       </c>
@@ -1201,7 +1203,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>0</v>
       </c>
@@ -1223,7 +1225,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>0</v>
       </c>
@@ -1234,7 +1236,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>1</v>
       </c>
@@ -1245,7 +1247,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>1</v>
       </c>
@@ -1256,7 +1258,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>1</v>
       </c>
@@ -1267,7 +1269,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>1</v>
       </c>
@@ -1278,7 +1280,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>1</v>
       </c>
@@ -1289,7 +1291,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>1</v>
       </c>
@@ -1300,7 +1302,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>1</v>
       </c>
@@ -1311,7 +1313,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>1</v>
       </c>
@@ -1322,7 +1324,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>1</v>
       </c>
@@ -1333,7 +1335,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>1</v>
       </c>
@@ -1344,7 +1346,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>1</v>
       </c>
@@ -1355,7 +1357,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>1</v>
       </c>
@@ -1366,7 +1368,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>1</v>
       </c>
@@ -1377,7 +1379,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>1</v>
       </c>
@@ -1388,7 +1390,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>1</v>
       </c>
@@ -1399,7 +1401,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>1</v>
       </c>
@@ -1410,7 +1412,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>1</v>
       </c>
@@ -1421,7 +1423,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>1</v>
       </c>
@@ -1432,7 +1434,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>1</v>
       </c>
@@ -1443,7 +1445,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>2</v>
       </c>
@@ -1454,7 +1456,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>2</v>
       </c>
@@ -1465,7 +1467,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>2</v>
       </c>
@@ -1476,7 +1478,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>2</v>
       </c>
@@ -1487,7 +1489,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>2</v>
       </c>
@@ -1498,7 +1500,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>2</v>
       </c>
@@ -1509,7 +1511,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>2</v>
       </c>
@@ -1520,7 +1522,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>2</v>
       </c>
@@ -1531,7 +1533,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>2</v>
       </c>
@@ -1542,7 +1544,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>2</v>
       </c>
@@ -1553,7 +1555,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>2</v>
       </c>
@@ -1564,7 +1566,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>2</v>
       </c>
@@ -1575,7 +1577,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>2</v>
       </c>
@@ -1586,7 +1588,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>2</v>
       </c>
@@ -1597,7 +1599,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>2</v>
       </c>
@@ -1608,7 +1610,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>2</v>
       </c>
@@ -1619,7 +1621,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>2</v>
       </c>
@@ -1641,7 +1643,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>3</v>
       </c>
@@ -1652,7 +1654,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>3</v>
       </c>
@@ -1663,7 +1665,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>3</v>
       </c>
@@ -1674,7 +1676,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>3</v>
       </c>
@@ -1685,7 +1687,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>3</v>
       </c>
@@ -1696,7 +1698,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>3</v>
       </c>
@@ -1707,7 +1709,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>3</v>
       </c>
@@ -1718,7 +1720,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>3</v>
       </c>
@@ -1729,7 +1731,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>3</v>
       </c>
@@ -1740,7 +1742,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>3</v>
       </c>
@@ -1751,7 +1753,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>3</v>
       </c>
@@ -1762,7 +1764,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>3</v>
       </c>
@@ -1773,7 +1775,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>3</v>
       </c>
@@ -1784,7 +1786,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>3</v>
       </c>
@@ -1795,7 +1797,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>3</v>
       </c>
@@ -1806,7 +1808,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>3</v>
       </c>
@@ -1817,7 +1819,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>3</v>
       </c>
@@ -1828,7 +1830,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>3</v>
       </c>
@@ -1839,7 +1841,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>3</v>
       </c>
@@ -1850,7 +1852,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>3</v>
       </c>
@@ -1861,7 +1863,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>3</v>
       </c>
@@ -1883,7 +1885,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>3</v>
       </c>
@@ -1894,7 +1896,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>4</v>
       </c>
@@ -1905,7 +1907,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>4</v>
       </c>
@@ -1916,7 +1918,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>4</v>
       </c>
@@ -1927,7 +1929,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>4</v>
       </c>
@@ -1938,7 +1940,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>4</v>
       </c>
@@ -1949,7 +1951,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>4</v>
       </c>
@@ -1960,7 +1962,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>4</v>
       </c>
@@ -1971,7 +1973,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>4</v>
       </c>
@@ -1982,7 +1984,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>4</v>
       </c>
@@ -1993,7 +1995,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>4</v>
       </c>
@@ -2004,7 +2006,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>4</v>
       </c>
@@ -2015,7 +2017,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>4</v>
       </c>
@@ -2026,7 +2028,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>4</v>
       </c>
@@ -2037,7 +2039,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>4</v>
       </c>
@@ -2048,7 +2050,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>4</v>
       </c>
@@ -2059,7 +2061,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>4</v>
       </c>
@@ -2070,7 +2072,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>4</v>
       </c>
@@ -2081,7 +2083,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>4</v>
       </c>
@@ -2092,7 +2094,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>4</v>
       </c>
@@ -2103,7 +2105,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>4</v>
       </c>
@@ -2125,7 +2127,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>5</v>
       </c>
@@ -2136,7 +2138,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>5</v>
       </c>
@@ -2147,7 +2149,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>5</v>
       </c>
@@ -2158,7 +2160,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>5</v>
       </c>
@@ -2169,7 +2171,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>5</v>
       </c>
@@ -2180,7 +2182,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>5</v>
       </c>
@@ -2191,7 +2193,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>5</v>
       </c>
@@ -2202,7 +2204,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>5</v>
       </c>
@@ -2213,7 +2215,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>5</v>
       </c>
@@ -2224,7 +2226,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>5</v>
       </c>
@@ -2235,7 +2237,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>5</v>
       </c>
@@ -2246,7 +2248,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>5</v>
       </c>
@@ -2257,7 +2259,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>5</v>
       </c>
@@ -2268,7 +2270,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>5</v>
       </c>
@@ -2279,7 +2281,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>5</v>
       </c>
@@ -2290,7 +2292,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>5</v>
       </c>
@@ -2301,7 +2303,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>5</v>
       </c>
@@ -2312,7 +2314,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>5</v>
       </c>
@@ -2323,7 +2325,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>5</v>
       </c>
@@ -2334,7 +2336,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>5</v>
       </c>
@@ -2345,7 +2347,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>5</v>
       </c>
@@ -2367,7 +2369,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>5</v>
       </c>
@@ -2378,7 +2380,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>6</v>
       </c>
@@ -2389,7 +2391,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>6</v>
       </c>
@@ -2400,7 +2402,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>6</v>
       </c>
@@ -2411,7 +2413,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>6</v>
       </c>
@@ -2422,7 +2424,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>6</v>
       </c>
@@ -2433,7 +2435,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>6</v>
       </c>
@@ -2444,7 +2446,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>6</v>
       </c>
@@ -2455,7 +2457,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>6</v>
       </c>
@@ -2466,7 +2468,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>6</v>
       </c>
@@ -2477,7 +2479,7 @@
         <v>1900</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>6</v>
       </c>
@@ -2488,7 +2490,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>6</v>
       </c>
@@ -2499,7 +2501,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>6</v>
       </c>
@@ -2510,7 +2512,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>6</v>
       </c>
@@ -2521,7 +2523,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>6</v>
       </c>
@@ -2532,7 +2534,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>6</v>
       </c>
@@ -2543,7 +2545,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>6</v>
       </c>
@@ -2554,7 +2556,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>6</v>
       </c>
@@ -2565,7 +2567,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>6</v>
       </c>
@@ -2576,7 +2578,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>6</v>
       </c>
@@ -2587,7 +2589,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>6</v>
       </c>
@@ -2598,7 +2600,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>6</v>
       </c>
@@ -2620,7 +2622,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>6</v>
       </c>
@@ -2631,7 +2633,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>7</v>
       </c>
@@ -2642,7 +2644,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>7</v>
       </c>
@@ -2653,7 +2655,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>7</v>
       </c>
@@ -2664,7 +2666,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>7</v>
       </c>
@@ -2675,7 +2677,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>7</v>
       </c>
@@ -2686,7 +2688,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>7</v>
       </c>
@@ -2697,7 +2699,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>7</v>
       </c>
@@ -2708,7 +2710,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>7</v>
       </c>
@@ -2719,7 +2721,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>7</v>
       </c>
@@ -2730,7 +2732,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>7</v>
       </c>
@@ -2741,7 +2743,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>7</v>
       </c>
@@ -2752,7 +2754,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>7</v>
       </c>
@@ -2763,7 +2765,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>7</v>
       </c>
@@ -2774,7 +2776,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>7</v>
       </c>
@@ -2785,7 +2787,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>7</v>
       </c>
@@ -2796,7 +2798,7 @@
         <v>2200</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>7</v>
       </c>
@@ -2807,7 +2809,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>7</v>
       </c>
@@ -2818,7 +2820,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>7</v>
       </c>
@@ -2829,7 +2831,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>7</v>
       </c>
@@ -2840,7 +2842,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>7</v>
       </c>
@@ -2851,7 +2853,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>7</v>
       </c>
@@ -2873,7 +2875,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>7</v>
       </c>
@@ -2884,7 +2886,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>8</v>
       </c>
@@ -2895,7 +2897,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>8</v>
       </c>
@@ -2906,7 +2908,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>8</v>
       </c>
@@ -2917,7 +2919,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>8</v>
       </c>
@@ -2928,7 +2930,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>8</v>
       </c>
@@ -2939,7 +2941,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>8</v>
       </c>
@@ -2950,7 +2952,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>8</v>
       </c>
@@ -2961,7 +2963,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>8</v>
       </c>
@@ -2972,7 +2974,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>8</v>
       </c>
@@ -2983,7 +2985,7 @@
         <v>2800</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>8</v>
       </c>
@@ -2994,7 +2996,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>8</v>
       </c>
@@ -3005,7 +3007,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>8</v>
       </c>
@@ -3016,7 +3018,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>8</v>
       </c>
@@ -3027,7 +3029,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>8</v>
       </c>
@@ -3038,7 +3040,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>8</v>
       </c>
@@ -3049,7 +3051,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>8</v>
       </c>
@@ -3060,7 +3062,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>8</v>
       </c>
@@ -3071,7 +3073,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>8</v>
       </c>
@@ -3082,7 +3084,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>8</v>
       </c>
@@ -3093,7 +3095,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>8</v>
       </c>
@@ -3104,7 +3106,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>8</v>
       </c>
@@ -3126,7 +3128,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>8</v>
       </c>
@@ -3137,7 +3139,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>9</v>
       </c>
@@ -3148,7 +3150,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>9</v>
       </c>
@@ -3159,7 +3161,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>9</v>
       </c>
@@ -3170,7 +3172,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>9</v>
       </c>
@@ -3181,7 +3183,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>9</v>
       </c>
@@ -3192,7 +3194,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>9</v>
       </c>
@@ -3203,7 +3205,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>9</v>
       </c>
@@ -3214,7 +3216,7 @@
         <v>1900</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>9</v>
       </c>
@@ -3225,7 +3227,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>9</v>
       </c>
@@ -3236,7 +3238,7 @@
         <v>2800</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>9</v>
       </c>
@@ -3247,7 +3249,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>9</v>
       </c>
@@ -3258,7 +3260,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>9</v>
       </c>
@@ -3269,7 +3271,7 @@
         <v>1900</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>9</v>
       </c>
@@ -3280,7 +3282,7 @@
         <v>2100</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>9</v>
       </c>
@@ -3291,7 +3293,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>9</v>
       </c>
@@ -3302,7 +3304,7 @@
         <v>4400</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>9</v>
       </c>
@@ -3313,7 +3315,7 @@
         <v>3900</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>9</v>
       </c>
@@ -3324,7 +3326,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>9</v>
       </c>
@@ -3335,7 +3337,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>9</v>
       </c>
@@ -3346,7 +3348,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>9</v>
       </c>
@@ -3357,7 +3359,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>9</v>
       </c>
@@ -3379,7 +3381,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>9</v>
       </c>
@@ -3390,7 +3392,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>10</v>
       </c>
@@ -3401,7 +3403,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>10</v>
       </c>
@@ -3412,7 +3414,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>10</v>
       </c>
@@ -3423,7 +3425,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>10</v>
       </c>
@@ -3434,7 +3436,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>10</v>
       </c>
@@ -3445,7 +3447,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>10</v>
       </c>
@@ -3456,7 +3458,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>10</v>
       </c>
@@ -3467,7 +3469,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>10</v>
       </c>
@@ -3478,7 +3480,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>10</v>
       </c>
@@ -3489,7 +3491,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>10</v>
       </c>
@@ -3500,7 +3502,7 @@
         <v>3900</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>10</v>
       </c>
@@ -3511,7 +3513,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>10</v>
       </c>
@@ -3522,7 +3524,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>10</v>
       </c>
@@ -3533,7 +3535,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>10</v>
       </c>
@@ -3544,7 +3546,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>10</v>
       </c>
@@ -3555,7 +3557,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>10</v>
       </c>
@@ -3566,7 +3568,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>10</v>
       </c>
@@ -3577,7 +3579,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>10</v>
       </c>
@@ -3588,7 +3590,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>10</v>
       </c>
@@ -3599,7 +3601,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>10</v>
       </c>
@@ -3610,7 +3612,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>10</v>
       </c>
@@ -3632,7 +3634,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>10</v>
       </c>
@@ -3643,7 +3645,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>11</v>
       </c>
@@ -3654,7 +3656,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>11</v>
       </c>
@@ -3665,7 +3667,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>11</v>
       </c>
@@ -3676,7 +3678,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>11</v>
       </c>
@@ -3687,7 +3689,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>11</v>
       </c>
@@ -3698,7 +3700,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>11</v>
       </c>
@@ -3709,7 +3711,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>11</v>
       </c>
@@ -3720,7 +3722,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>11</v>
       </c>
@@ -3731,7 +3733,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>11</v>
       </c>
@@ -3742,7 +3744,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>11</v>
       </c>
@@ -3753,7 +3755,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>11</v>
       </c>
@@ -3764,7 +3766,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>11</v>
       </c>
@@ -3775,7 +3777,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>11</v>
       </c>
@@ -3786,7 +3788,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>11</v>
       </c>
@@ -3797,7 +3799,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>11</v>
       </c>
@@ -3808,7 +3810,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>11</v>
       </c>
@@ -3819,7 +3821,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>11</v>
       </c>
@@ -3830,7 +3832,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>11</v>
       </c>
@@ -3841,7 +3843,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>11</v>
       </c>
@@ -3852,7 +3854,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>11</v>
       </c>
@@ -3863,7 +3865,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>11</v>
       </c>
@@ -3885,7 +3887,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>11</v>
       </c>
@@ -3896,7 +3898,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>12</v>
       </c>
@@ -3907,7 +3909,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>12</v>
       </c>
@@ -3918,7 +3920,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>12</v>
       </c>
@@ -3929,7 +3931,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>12</v>
       </c>
@@ -3940,7 +3942,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>12</v>
       </c>
@@ -3951,7 +3953,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>12</v>
       </c>
@@ -3962,7 +3964,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>12</v>
       </c>
@@ -3973,7 +3975,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>12</v>
       </c>
@@ -3984,7 +3986,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>12</v>
       </c>
@@ -3995,7 +3997,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>12</v>
       </c>
@@ -4006,7 +4008,7 @@
         <v>1900</v>
       </c>
     </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>12</v>
       </c>
@@ -4017,7 +4019,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>12</v>
       </c>
@@ -4028,7 +4030,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>12</v>
       </c>
@@ -4039,7 +4041,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>12</v>
       </c>
@@ -4050,7 +4052,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>12</v>
       </c>
@@ -4061,7 +4063,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>12</v>
       </c>
@@ -4072,7 +4074,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>12</v>
       </c>
@@ -4083,7 +4085,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>12</v>
       </c>
@@ -4094,7 +4096,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>12</v>
       </c>
@@ -4105,7 +4107,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>12</v>
       </c>
@@ -4116,7 +4118,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>12</v>
       </c>
@@ -4138,7 +4140,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>12</v>
       </c>
@@ -4149,7 +4151,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>13</v>
       </c>
@@ -4160,7 +4162,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>13</v>
       </c>
@@ -4171,7 +4173,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>13</v>
       </c>
@@ -4182,7 +4184,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>13</v>
       </c>
@@ -4193,7 +4195,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>13</v>
       </c>
@@ -4204,7 +4206,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>13</v>
       </c>
@@ -4215,7 +4217,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A295">
         <v>13</v>
       </c>
@@ -4226,7 +4228,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>13</v>
       </c>
@@ -4237,7 +4239,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A297">
         <v>13</v>
       </c>
@@ -4248,7 +4250,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>13</v>
       </c>
@@ -4259,7 +4261,7 @@
         <v>2100</v>
       </c>
     </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>13</v>
       </c>
@@ -4270,7 +4272,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>13</v>
       </c>
@@ -4281,7 +4283,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A301">
         <v>13</v>
       </c>
@@ -4292,7 +4294,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A302">
         <v>13</v>
       </c>
@@ -4303,7 +4305,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A303">
         <v>13</v>
       </c>
@@ -4314,7 +4316,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A304">
         <v>13</v>
       </c>
@@ -4325,7 +4327,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A305">
         <v>13</v>
       </c>
@@ -4336,7 +4338,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A306">
         <v>13</v>
       </c>
@@ -4347,7 +4349,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A307">
         <v>13</v>
       </c>
@@ -4358,7 +4360,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A308">
         <v>13</v>
       </c>
@@ -4369,7 +4371,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A309">
         <v>13</v>
       </c>
@@ -4391,7 +4393,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="311" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A311">
         <v>13</v>
       </c>
@@ -4402,7 +4404,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="312" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A312">
         <v>14</v>
       </c>
@@ -4413,7 +4415,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A313">
         <v>14</v>
       </c>
@@ -4424,7 +4426,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="314" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A314">
         <v>14</v>
       </c>
@@ -4435,7 +4437,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A315">
         <v>14</v>
       </c>
@@ -4446,7 +4448,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="316" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A316">
         <v>14</v>
       </c>
@@ -4457,7 +4459,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="317" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A317">
         <v>14</v>
       </c>
@@ -4468,7 +4470,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="318" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A318">
         <v>14</v>
       </c>
@@ -4479,7 +4481,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="319" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A319">
         <v>14</v>
       </c>
@@ -4490,7 +4492,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="320" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A320">
         <v>14</v>
       </c>
@@ -4501,7 +4503,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="321" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A321">
         <v>14</v>
       </c>
@@ -4512,7 +4514,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="322" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A322">
         <v>14</v>
       </c>
@@ -4523,7 +4525,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A323">
         <v>14</v>
       </c>
@@ -4534,7 +4536,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="324" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A324">
         <v>14</v>
       </c>
@@ -4545,7 +4547,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="325" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A325">
         <v>14</v>
       </c>
@@ -4556,7 +4558,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="326" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A326">
         <v>14</v>
       </c>
@@ -4567,7 +4569,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="327" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A327">
         <v>14</v>
       </c>
@@ -4578,7 +4580,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="328" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A328">
         <v>14</v>
       </c>
@@ -4589,7 +4591,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="329" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A329">
         <v>14</v>
       </c>
@@ -4600,7 +4602,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="330" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A330">
         <v>14</v>
       </c>
@@ -4611,7 +4613,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="331" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A331">
         <v>14</v>
       </c>
@@ -4622,7 +4624,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="332" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A332">
         <v>14</v>
       </c>
@@ -4644,7 +4646,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="334" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A334">
         <v>14</v>
       </c>
@@ -4655,7 +4657,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="335" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A335">
         <v>15</v>
       </c>
@@ -4666,7 +4668,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="336" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A336">
         <v>15</v>
       </c>
@@ -4677,7 +4679,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="337" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A337">
         <v>15</v>
       </c>
@@ -4688,7 +4690,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="338" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A338">
         <v>15</v>
       </c>
@@ -4699,7 +4701,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="339" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A339">
         <v>15</v>
       </c>
@@ -4710,7 +4712,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="340" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A340">
         <v>15</v>
       </c>
@@ -4721,7 +4723,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="341" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A341">
         <v>15</v>
       </c>
@@ -4732,7 +4734,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="342" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A342">
         <v>15</v>
       </c>
@@ -4743,7 +4745,7 @@
         <v>2200</v>
       </c>
     </row>
-    <row r="343" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A343">
         <v>15</v>
       </c>
@@ -4754,7 +4756,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="344" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A344">
         <v>15</v>
       </c>
@@ -4765,7 +4767,7 @@
         <v>4400</v>
       </c>
     </row>
-    <row r="345" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A345">
         <v>15</v>
       </c>
@@ -4776,7 +4778,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="346" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A346">
         <v>15</v>
       </c>
@@ -4787,7 +4789,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="347" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A347">
         <v>15</v>
       </c>
@@ -4798,7 +4800,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="348" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A348">
         <v>15</v>
       </c>
@@ -4809,7 +4811,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="349" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A349">
         <v>15</v>
       </c>
@@ -4820,7 +4822,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="350" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A350">
         <v>15</v>
       </c>
@@ -4831,7 +4833,7 @@
         <v>2800</v>
       </c>
     </row>
-    <row r="351" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A351">
         <v>15</v>
       </c>
@@ -4842,7 +4844,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="352" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A352">
         <v>15</v>
       </c>
@@ -4853,7 +4855,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="353" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A353">
         <v>15</v>
       </c>
@@ -4864,7 +4866,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="354" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A354">
         <v>15</v>
       </c>
@@ -4875,7 +4877,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="355" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A355">
         <v>15</v>
       </c>
@@ -4897,7 +4899,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="357" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A357">
         <v>15</v>
       </c>
@@ -4908,7 +4910,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="358" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A358">
         <v>16</v>
       </c>
@@ -4919,7 +4921,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="359" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A359">
         <v>16</v>
       </c>
@@ -4930,7 +4932,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="360" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A360">
         <v>16</v>
       </c>
@@ -4941,7 +4943,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="361" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A361">
         <v>16</v>
       </c>
@@ -4952,7 +4954,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="362" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A362">
         <v>16</v>
       </c>
@@ -4963,7 +4965,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="363" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A363">
         <v>16</v>
       </c>
@@ -4974,7 +4976,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="364" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A364">
         <v>16</v>
       </c>
@@ -4985,7 +4987,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="365" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A365">
         <v>16</v>
       </c>
@@ -4996,7 +4998,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="366" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A366">
         <v>16</v>
       </c>
@@ -5007,7 +5009,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="367" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A367">
         <v>16</v>
       </c>
@@ -5018,7 +5020,7 @@
         <v>3900</v>
       </c>
     </row>
-    <row r="368" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A368">
         <v>16</v>
       </c>
@@ -5029,7 +5031,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="369" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A369">
         <v>16</v>
       </c>
@@ -5040,7 +5042,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="370" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A370">
         <v>16</v>
       </c>
@@ -5051,7 +5053,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="371" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A371">
         <v>16</v>
       </c>
@@ -5062,7 +5064,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="372" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A372">
         <v>16</v>
       </c>
@@ -5073,7 +5075,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="373" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A373">
         <v>16</v>
       </c>
@@ -5084,7 +5086,7 @@
         <v>2800</v>
       </c>
     </row>
-    <row r="374" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A374">
         <v>16</v>
       </c>
@@ -5095,7 +5097,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="375" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A375">
         <v>16</v>
       </c>
@@ -5106,7 +5108,7 @@
         <v>1700</v>
       </c>
     </row>
-    <row r="376" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A376">
         <v>16</v>
       </c>
@@ -5117,7 +5119,7 @@
         <v>1700</v>
       </c>
     </row>
-    <row r="377" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A377">
         <v>16</v>
       </c>
@@ -5128,7 +5130,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="378" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A378">
         <v>16</v>
       </c>
@@ -5150,7 +5152,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="380" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A380">
         <v>16</v>
       </c>
@@ -5161,7 +5163,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="381" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A381">
         <v>17</v>
       </c>
@@ -5172,7 +5174,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="382" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A382">
         <v>17</v>
       </c>
@@ -5183,7 +5185,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="383" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A383">
         <v>17</v>
       </c>
@@ -5194,7 +5196,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="384" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A384">
         <v>17</v>
       </c>
@@ -5205,7 +5207,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="385" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A385">
         <v>17</v>
       </c>
@@ -5216,7 +5218,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="386" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A386">
         <v>17</v>
       </c>
@@ -5227,7 +5229,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="387" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A387">
         <v>17</v>
       </c>
@@ -5238,7 +5240,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="388" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A388">
         <v>17</v>
       </c>
@@ -5249,7 +5251,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="389" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A389">
         <v>17</v>
       </c>
@@ -5260,7 +5262,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="390" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A390">
         <v>17</v>
       </c>
@@ -5271,7 +5273,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="391" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A391">
         <v>17</v>
       </c>
@@ -5282,7 +5284,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="392" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A392">
         <v>17</v>
       </c>
@@ -5293,7 +5295,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="393" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A393">
         <v>17</v>
       </c>
@@ -5304,7 +5306,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="394" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A394">
         <v>17</v>
       </c>
@@ -5315,7 +5317,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="395" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A395">
         <v>17</v>
       </c>
@@ -5326,7 +5328,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="396" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A396">
         <v>17</v>
       </c>
@@ -5337,7 +5339,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="397" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A397">
         <v>17</v>
       </c>
@@ -5348,7 +5350,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="398" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A398">
         <v>17</v>
       </c>
@@ -5370,7 +5372,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="400" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A400">
         <v>18</v>
       </c>
@@ -5381,7 +5383,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="401" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A401">
         <v>18</v>
       </c>
@@ -5392,7 +5394,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="402" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A402">
         <v>18</v>
       </c>
@@ -5403,7 +5405,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="403" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A403">
         <v>18</v>
       </c>
@@ -5414,7 +5416,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="404" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A404">
         <v>18</v>
       </c>
@@ -5425,7 +5427,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="405" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A405">
         <v>18</v>
       </c>
@@ -5436,7 +5438,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="406" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A406">
         <v>18</v>
       </c>
@@ -5447,7 +5449,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="407" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A407">
         <v>18</v>
       </c>
@@ -5458,7 +5460,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="408" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A408">
         <v>18</v>
       </c>
@@ -5469,7 +5471,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="409" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A409">
         <v>18</v>
       </c>
@@ -5480,7 +5482,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="410" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A410">
         <v>18</v>
       </c>
@@ -5491,7 +5493,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="411" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A411">
         <v>18</v>
       </c>
@@ -5502,7 +5504,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="412" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A412">
         <v>18</v>
       </c>
@@ -5513,7 +5515,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="413" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A413">
         <v>18</v>
       </c>
@@ -5524,7 +5526,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="414" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A414">
         <v>18</v>
       </c>
@@ -5535,7 +5537,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="415" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A415">
         <v>18</v>
       </c>
@@ -5546,7 +5548,7 @@
         <v>1700</v>
       </c>
     </row>
-    <row r="416" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A416">
         <v>18</v>
       </c>
@@ -5557,7 +5559,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="417" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A417">
         <v>18</v>
       </c>
@@ -5568,7 +5570,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="418" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A418">
         <v>18</v>
       </c>
@@ -5579,7 +5581,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="419" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A419">
         <v>18</v>
       </c>
@@ -5601,7 +5603,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="421" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A421">
         <v>18</v>
       </c>
@@ -5612,7 +5614,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="422" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A422">
         <v>19</v>
       </c>
@@ -5623,7 +5625,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="423" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A423">
         <v>19</v>
       </c>
@@ -5634,7 +5636,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="424" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A424">
         <v>19</v>
       </c>
@@ -5645,7 +5647,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="425" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A425">
         <v>19</v>
       </c>
@@ -5656,7 +5658,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="426" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A426">
         <v>19</v>
       </c>
@@ -5667,7 +5669,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="427" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A427">
         <v>19</v>
       </c>
@@ -5678,7 +5680,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="428" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A428">
         <v>19</v>
       </c>
@@ -5689,7 +5691,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="429" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A429">
         <v>19</v>
       </c>
@@ -5700,7 +5702,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="430" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A430">
         <v>19</v>
       </c>
@@ -5711,7 +5713,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="431" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A431">
         <v>19</v>
       </c>
@@ -5722,7 +5724,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="432" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A432">
         <v>19</v>
       </c>
@@ -5733,7 +5735,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="433" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A433">
         <v>19</v>
       </c>
@@ -5744,7 +5746,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="434" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A434">
         <v>19</v>
       </c>
@@ -5755,7 +5757,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="435" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A435">
         <v>19</v>
       </c>
@@ -5766,7 +5768,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="436" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A436">
         <v>19</v>
       </c>
@@ -5777,7 +5779,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="437" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A437">
         <v>19</v>
       </c>
@@ -5788,7 +5790,7 @@
         <v>1700</v>
       </c>
     </row>
-    <row r="438" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A438">
         <v>19</v>
       </c>
@@ -5799,7 +5801,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="439" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A439">
         <v>19</v>
       </c>
@@ -5810,7 +5812,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="440" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A440">
         <v>19</v>
       </c>
@@ -5821,7 +5823,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="441" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A441">
         <v>19</v>
       </c>
@@ -5843,7 +5845,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="443" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A443">
         <v>19</v>
       </c>
@@ -5854,7 +5856,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="444" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A444">
         <v>20</v>
       </c>
@@ -5865,7 +5867,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="445" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A445">
         <v>20</v>
       </c>
@@ -5876,7 +5878,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="446" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A446">
         <v>20</v>
       </c>
@@ -5887,7 +5889,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="447" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A447">
         <v>20</v>
       </c>
@@ -5898,7 +5900,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="448" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A448">
         <v>20</v>
       </c>
@@ -5909,7 +5911,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="449" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A449">
         <v>20</v>
       </c>
@@ -5920,7 +5922,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="450" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A450">
         <v>20</v>
       </c>
@@ -5931,7 +5933,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="451" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A451">
         <v>20</v>
       </c>
@@ -5942,7 +5944,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="452" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A452">
         <v>20</v>
       </c>
@@ -5953,7 +5955,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="453" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A453">
         <v>20</v>
       </c>
@@ -5964,7 +5966,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="454" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A454">
         <v>20</v>
       </c>
@@ -5975,7 +5977,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="455" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A455">
         <v>20</v>
       </c>
@@ -5986,7 +5988,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="456" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A456">
         <v>20</v>
       </c>
@@ -5997,7 +5999,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="457" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A457">
         <v>20</v>
       </c>
@@ -6008,7 +6010,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="458" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A458">
         <v>20</v>
       </c>
@@ -6019,7 +6021,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="459" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A459">
         <v>20</v>
       </c>
@@ -6030,7 +6032,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="460" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A460">
         <v>20</v>
       </c>
@@ -6041,7 +6043,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="461" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A461">
         <v>20</v>
       </c>
@@ -6052,7 +6054,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="462" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A462">
         <v>20</v>
       </c>
@@ -6074,7 +6076,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="464" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A464">
         <v>20</v>
       </c>
@@ -6085,7 +6087,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="465" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A465">
         <v>21</v>
       </c>
@@ -6096,7 +6098,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="466" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A466">
         <v>21</v>
       </c>
@@ -6107,7 +6109,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="467" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A467">
         <v>21</v>
       </c>
@@ -6118,7 +6120,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="468" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A468">
         <v>21</v>
       </c>
@@ -6129,7 +6131,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="469" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A469">
         <v>21</v>
       </c>
@@ -6140,7 +6142,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="470" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A470">
         <v>21</v>
       </c>
@@ -6151,7 +6153,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="471" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A471">
         <v>21</v>
       </c>
@@ -6162,7 +6164,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="472" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A472">
         <v>21</v>
       </c>
@@ -6173,7 +6175,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="473" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A473">
         <v>21</v>
       </c>
@@ -6184,7 +6186,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="474" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A474">
         <v>21</v>
       </c>
@@ -6195,7 +6197,7 @@
         <v>2600</v>
       </c>
     </row>
-    <row r="475" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A475">
         <v>21</v>
       </c>
@@ -6206,7 +6208,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="476" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A476">
         <v>21</v>
       </c>
@@ -6217,7 +6219,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="477" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A477">
         <v>21</v>
       </c>
@@ -6228,7 +6230,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="478" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A478">
         <v>21</v>
       </c>
@@ -6239,7 +6241,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="479" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A479">
         <v>21</v>
       </c>
@@ -6250,7 +6252,7 @@
         <v>2600</v>
       </c>
     </row>
-    <row r="480" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A480">
         <v>21</v>
       </c>
@@ -6261,7 +6263,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="481" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A481">
         <v>21</v>
       </c>
@@ -6272,7 +6274,7 @@
         <v>1700</v>
       </c>
     </row>
-    <row r="482" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A482">
         <v>21</v>
       </c>
@@ -6283,7 +6285,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="483" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A483">
         <v>21</v>
       </c>
@@ -6294,7 +6296,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="484" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A484">
         <v>21</v>
       </c>
@@ -6305,7 +6307,7 @@
         <v>2400</v>
       </c>
     </row>
-    <row r="485" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A485">
         <v>21</v>
       </c>
@@ -6327,7 +6329,7 @@
         <v>2100</v>
       </c>
     </row>
-    <row r="487" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A487">
         <v>21</v>
       </c>
@@ -6338,7 +6340,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="488" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A488">
         <v>22</v>
       </c>
@@ -6349,7 +6351,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="489" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A489">
         <v>22</v>
       </c>
@@ -6360,7 +6362,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="490" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A490">
         <v>22</v>
       </c>
@@ -6371,7 +6373,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="491" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A491">
         <v>22</v>
       </c>
@@ -6382,7 +6384,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="492" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A492">
         <v>22</v>
       </c>
@@ -6393,7 +6395,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="493" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A493">
         <v>22</v>
       </c>
@@ -6404,7 +6406,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="494" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A494">
         <v>22</v>
       </c>
@@ -6415,7 +6417,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="495" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A495">
         <v>22</v>
       </c>
@@ -6426,7 +6428,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="496" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A496">
         <v>22</v>
       </c>
@@ -6437,7 +6439,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="497" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A497">
         <v>22</v>
       </c>
@@ -6448,7 +6450,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="498" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A498">
         <v>22</v>
       </c>
@@ -6459,7 +6461,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="499" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A499">
         <v>22</v>
       </c>
@@ -6470,7 +6472,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="500" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A500">
         <v>22</v>
       </c>
@@ -6481,7 +6483,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="501" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A501">
         <v>22</v>
       </c>
@@ -6492,7 +6494,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="502" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A502">
         <v>22</v>
       </c>
@@ -6503,7 +6505,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="503" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A503">
         <v>22</v>
       </c>
@@ -6514,7 +6516,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="504" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A504">
         <v>22</v>
       </c>
@@ -6525,7 +6527,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="505" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A505">
         <v>22</v>
       </c>
@@ -6536,7 +6538,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="506" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A506">
         <v>22</v>
       </c>
@@ -6547,7 +6549,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="507" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A507">
         <v>22</v>
       </c>
@@ -6558,7 +6560,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="508" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A508">
         <v>22</v>
       </c>
@@ -6569,7 +6571,7 @@
         <v>2100</v>
       </c>
     </row>
-    <row r="509" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A509">
         <v>22</v>
       </c>
@@ -6580,7 +6582,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="510" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A510">
         <v>23</v>
       </c>
@@ -6591,7 +6593,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="511" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A511">
         <v>23</v>
       </c>
@@ -6602,7 +6604,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="512" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A512">
         <v>23</v>
       </c>
@@ -6613,7 +6615,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="513" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A513">
         <v>23</v>
       </c>
@@ -6624,7 +6626,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="514" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A514">
         <v>23</v>
       </c>
@@ -6635,7 +6637,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="515" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A515">
         <v>23</v>
       </c>
@@ -6646,7 +6648,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="516" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A516">
         <v>23</v>
       </c>
@@ -6657,7 +6659,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="517" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A517">
         <v>23</v>
       </c>
@@ -6668,7 +6670,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="518" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A518">
         <v>23</v>
       </c>
@@ -6679,7 +6681,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="519" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A519">
         <v>23</v>
       </c>
@@ -6690,7 +6692,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="520" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A520">
         <v>23</v>
       </c>
@@ -6701,7 +6703,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="521" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A521">
         <v>23</v>
       </c>
@@ -6712,7 +6714,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="522" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A522">
         <v>23</v>
       </c>
@@ -6723,7 +6725,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="523" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A523">
         <v>23</v>
       </c>
@@ -6734,7 +6736,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="524" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A524">
         <v>23</v>
       </c>
@@ -6745,7 +6747,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="525" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A525">
         <v>23</v>
       </c>
@@ -6756,7 +6758,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="526" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A526">
         <v>23</v>
       </c>
@@ -6767,7 +6769,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="527" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A527">
         <v>23</v>
       </c>
@@ -6790,6 +6792,13 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:C528" xr:uid="{015A5D85-D155-425E-BFFD-7E285285966C}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="22"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -12627,1226 +12636,1448 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75E49342-CB41-4D63-8F17-CBB17456BADA}">
-  <dimension ref="A1:D76"/>
+  <dimension ref="A1:E76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38:B39"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1">
         <v>0</v>
       </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
       <c r="C1">
-        <f>A1+1</f>
         <v>1</v>
       </c>
       <c r="D1">
         <f>B1+1</f>
+        <v>1</v>
+      </c>
+      <c r="E1">
+        <f>C1+1</f>
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2">
         <v>0</v>
       </c>
-      <c r="B2">
+      <c r="C2">
         <v>2</v>
       </c>
-      <c r="C2">
-        <f t="shared" ref="C2:C65" si="0">A2+1</f>
+      <c r="D2">
+        <f t="shared" ref="D2:D65" si="0">B2+1</f>
         <v>1</v>
       </c>
-      <c r="D2">
-        <f t="shared" ref="D2:D65" si="1">B2+1</f>
+      <c r="E2">
+        <f t="shared" ref="E2:E65" si="1">C2+1</f>
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3">
         <v>1</v>
       </c>
-      <c r="B3">
+      <c r="C3">
         <v>0</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4">
         <v>1</v>
       </c>
-      <c r="B4">
+      <c r="C4">
         <v>5</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5">
         <v>2</v>
       </c>
-      <c r="B5">
+      <c r="C5">
         <v>0</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6">
         <v>2</v>
       </c>
-      <c r="B6">
+      <c r="C6">
         <v>3</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
+        <v>7</v>
+      </c>
+      <c r="B7">
         <v>2</v>
       </c>
-      <c r="B7">
+      <c r="C7">
         <v>11</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
+        <v>8</v>
+      </c>
+      <c r="B8">
         <v>3</v>
       </c>
-      <c r="B8">
+      <c r="C8">
         <v>2</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
+        <v>9</v>
+      </c>
+      <c r="B9">
         <v>3</v>
       </c>
-      <c r="B9">
+      <c r="C9">
         <v>4</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
+        <v>10</v>
+      </c>
+      <c r="B10">
         <v>3</v>
       </c>
-      <c r="B10">
+      <c r="C10">
         <v>10</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
+        <v>11</v>
+      </c>
+      <c r="B11">
         <v>4</v>
       </c>
-      <c r="B11">
+      <c r="C11">
         <v>3</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
+        <v>12</v>
+      </c>
+      <c r="B12">
         <v>4</v>
       </c>
-      <c r="B12">
+      <c r="C12">
         <v>5</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>13</v>
+      </c>
+      <c r="B13" s="1">
         <v>4</v>
       </c>
-      <c r="B13">
+      <c r="C13" s="1">
         <v>8</v>
       </c>
-      <c r="C13">
+      <c r="D13" s="1">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="D13">
+      <c r="E13" s="1">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
+        <v>14</v>
+      </c>
+      <c r="B14">
         <v>5</v>
       </c>
-      <c r="B14">
+      <c r="C14">
         <v>1</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
+        <v>15</v>
+      </c>
+      <c r="B15">
         <v>5</v>
       </c>
-      <c r="B15">
+      <c r="C15">
         <v>4</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
+        <v>16</v>
+      </c>
+      <c r="B16">
         <v>5</v>
       </c>
-      <c r="B16">
+      <c r="C16">
         <v>7</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
+        <v>17</v>
+      </c>
+      <c r="B17">
         <v>6</v>
       </c>
-      <c r="B17">
+      <c r="C17">
         <v>7</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
+        <v>18</v>
+      </c>
+      <c r="B18">
         <v>6</v>
       </c>
-      <c r="B18">
+      <c r="C18">
         <v>17</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
+        <v>19</v>
+      </c>
+      <c r="B19">
         <v>7</v>
       </c>
-      <c r="B19">
+      <c r="C19">
         <v>5</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
+        <v>20</v>
+      </c>
+      <c r="B20">
         <v>7</v>
       </c>
-      <c r="B20">
+      <c r="C20">
         <v>6</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
+        <v>21</v>
+      </c>
+      <c r="B21">
         <v>7</v>
       </c>
-      <c r="B21">
+      <c r="C21">
         <v>8</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
+        <v>22</v>
+      </c>
+      <c r="B22">
         <v>7</v>
       </c>
-      <c r="B22">
+      <c r="C22">
         <v>15</v>
       </c>
-      <c r="C22">
+      <c r="D22">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
+        <v>23</v>
+      </c>
+      <c r="B23">
         <v>8</v>
       </c>
-      <c r="B23">
+      <c r="C23">
         <v>4</v>
       </c>
-      <c r="C23">
+      <c r="D23">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="D23">
+      <c r="E23">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
+        <v>24</v>
+      </c>
+      <c r="B24">
         <v>8</v>
       </c>
-      <c r="B24">
+      <c r="C24">
         <v>7</v>
       </c>
-      <c r="C24">
+      <c r="D24">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="D24">
+      <c r="E24">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
+        <v>25</v>
+      </c>
+      <c r="B25">
         <v>8</v>
       </c>
-      <c r="B25">
+      <c r="C25">
         <v>9</v>
       </c>
-      <c r="C25">
+      <c r="D25">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="D25">
+      <c r="E25">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
+        <v>26</v>
+      </c>
+      <c r="B26">
         <v>9</v>
       </c>
-      <c r="B26">
+      <c r="C26">
         <v>8</v>
       </c>
-      <c r="C26">
+      <c r="D26">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="D26">
+      <c r="E26">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
+        <v>27</v>
+      </c>
+      <c r="B27">
         <v>9</v>
       </c>
-      <c r="B27">
+      <c r="C27">
         <v>10</v>
       </c>
-      <c r="C27">
+      <c r="D27">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="D27">
+      <c r="E27">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
+        <v>28</v>
+      </c>
+      <c r="B28">
         <v>9</v>
       </c>
-      <c r="B28">
+      <c r="C28">
         <v>14</v>
       </c>
-      <c r="C28">
+      <c r="D28">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="D28">
+      <c r="E28">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
+        <v>29</v>
+      </c>
+      <c r="B29">
         <v>9</v>
       </c>
-      <c r="B29">
+      <c r="C29">
         <v>15</v>
       </c>
-      <c r="C29">
+      <c r="D29">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="D29">
+      <c r="E29">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
+        <v>30</v>
+      </c>
+      <c r="B30">
         <v>9</v>
       </c>
-      <c r="B30">
+      <c r="C30">
         <v>16</v>
       </c>
-      <c r="C30">
+      <c r="D30">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="D30">
+      <c r="E30">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
+        <v>31</v>
+      </c>
+      <c r="B31">
         <v>10</v>
       </c>
-      <c r="B31">
+      <c r="C31">
         <v>3</v>
       </c>
-      <c r="C31">
+      <c r="D31">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="D31">
+      <c r="E31">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32">
+        <v>32</v>
+      </c>
+      <c r="B32">
         <v>10</v>
       </c>
-      <c r="B32">
+      <c r="C32">
         <v>9</v>
       </c>
-      <c r="C32">
+      <c r="D32">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="D32">
+      <c r="E32">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33">
+        <v>33</v>
+      </c>
+      <c r="B33">
         <v>10</v>
       </c>
-      <c r="B33">
+      <c r="C33">
         <v>11</v>
       </c>
-      <c r="C33">
+      <c r="D33">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="D33">
+      <c r="E33">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34">
+        <v>34</v>
+      </c>
+      <c r="B34">
         <v>10</v>
       </c>
-      <c r="B34">
+      <c r="C34">
         <v>13</v>
       </c>
-      <c r="C34">
+      <c r="D34">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="D34">
+      <c r="E34">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35">
+        <v>35</v>
+      </c>
+      <c r="B35">
         <v>11</v>
       </c>
-      <c r="B35">
+      <c r="C35">
         <v>2</v>
       </c>
-      <c r="C35">
+      <c r="D35">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="D35">
+      <c r="E35">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36">
+        <v>36</v>
+      </c>
+      <c r="B36">
         <v>11</v>
       </c>
-      <c r="B36">
+      <c r="C36">
         <v>10</v>
       </c>
-      <c r="C36">
+      <c r="D36">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="D36">
+      <c r="E36">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37">
+        <v>37</v>
+      </c>
+      <c r="B37">
         <v>11</v>
       </c>
-      <c r="B37">
+      <c r="C37">
         <v>12</v>
       </c>
-      <c r="C37">
+      <c r="D37">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="D37">
+      <c r="E37">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="1">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>38</v>
+      </c>
+      <c r="B38" s="1">
         <v>12</v>
       </c>
-      <c r="B38" s="1">
+      <c r="C38" s="1">
         <v>11</v>
       </c>
-      <c r="C38" s="1">
+      <c r="D38" s="1">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="D38" s="1">
+      <c r="E38" s="1">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="1">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>39</v>
+      </c>
+      <c r="B39" s="1">
         <v>12</v>
       </c>
-      <c r="B39" s="1">
+      <c r="C39" s="1">
         <v>23</v>
       </c>
-      <c r="C39" s="1">
+      <c r="D39" s="1">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="D39" s="1">
+      <c r="E39" s="1">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40">
+        <v>40</v>
+      </c>
+      <c r="B40">
         <v>13</v>
       </c>
-      <c r="B40">
+      <c r="C40">
         <v>10</v>
       </c>
-      <c r="C40">
+      <c r="D40">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="D40">
+      <c r="E40">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41">
+        <v>41</v>
+      </c>
+      <c r="B41">
         <v>13</v>
       </c>
-      <c r="B41">
+      <c r="C41">
         <v>14</v>
       </c>
-      <c r="C41">
+      <c r="D41">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="D41">
+      <c r="E41">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42">
+        <v>42</v>
+      </c>
+      <c r="B42">
         <v>13</v>
       </c>
-      <c r="B42">
+      <c r="C42">
         <v>22</v>
       </c>
-      <c r="C42">
+      <c r="D42">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="D42">
+      <c r="E42">
         <f t="shared" si="1"/>
         <v>23</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43">
+        <v>43</v>
+      </c>
+      <c r="B43">
         <v>14</v>
       </c>
-      <c r="B43">
+      <c r="C43">
         <v>9</v>
       </c>
-      <c r="C43">
+      <c r="D43">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="D43">
+      <c r="E43">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44">
+        <v>44</v>
+      </c>
+      <c r="B44">
         <v>14</v>
       </c>
-      <c r="B44">
+      <c r="C44">
         <v>13</v>
       </c>
-      <c r="C44">
+      <c r="D44">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="D44">
+      <c r="E44">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45">
+        <v>45</v>
+      </c>
+      <c r="B45">
         <v>14</v>
       </c>
-      <c r="B45">
+      <c r="C45">
         <v>18</v>
       </c>
-      <c r="C45">
+      <c r="D45">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="D45">
+      <c r="E45">
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46">
+        <v>46</v>
+      </c>
+      <c r="B46">
         <v>14</v>
       </c>
-      <c r="B46">
+      <c r="C46">
         <v>21</v>
       </c>
-      <c r="C46">
+      <c r="D46">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="D46">
+      <c r="E46">
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47">
+        <v>47</v>
+      </c>
+      <c r="B47">
         <v>15</v>
       </c>
-      <c r="B47">
+      <c r="C47">
         <v>7</v>
       </c>
-      <c r="C47">
+      <c r="D47">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="D47">
+      <c r="E47">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48">
+        <v>48</v>
+      </c>
+      <c r="B48">
         <v>15</v>
       </c>
-      <c r="B48">
+      <c r="C48">
         <v>9</v>
       </c>
-      <c r="C48">
+      <c r="D48">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="D48">
+      <c r="E48">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49">
+        <v>49</v>
+      </c>
+      <c r="B49">
         <v>15</v>
       </c>
-      <c r="B49">
+      <c r="C49">
         <v>16</v>
       </c>
-      <c r="C49">
+      <c r="D49">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="D49">
+      <c r="E49">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50">
+        <v>50</v>
+      </c>
+      <c r="B50">
         <v>15</v>
       </c>
-      <c r="B50">
+      <c r="C50">
         <v>17</v>
       </c>
-      <c r="C50">
+      <c r="D50">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="D50">
+      <c r="E50">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51">
+        <v>51</v>
+      </c>
+      <c r="B51">
         <v>16</v>
       </c>
-      <c r="B51">
+      <c r="C51">
         <v>9</v>
       </c>
-      <c r="C51">
+      <c r="D51">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="D51">
+      <c r="E51">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52">
+        <v>52</v>
+      </c>
+      <c r="B52">
         <v>16</v>
       </c>
-      <c r="B52">
+      <c r="C52">
         <v>15</v>
       </c>
-      <c r="C52">
+      <c r="D52">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="D52">
+      <c r="E52">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53">
+        <v>53</v>
+      </c>
+      <c r="B53">
         <v>16</v>
       </c>
-      <c r="B53">
+      <c r="C53">
         <v>18</v>
       </c>
-      <c r="C53">
+      <c r="D53">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="D53">
+      <c r="E53">
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54">
+        <v>54</v>
+      </c>
+      <c r="B54">
         <v>17</v>
       </c>
-      <c r="B54">
+      <c r="C54">
         <v>6</v>
       </c>
-      <c r="C54">
+      <c r="D54">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="D54">
+      <c r="E54">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55">
+        <v>55</v>
+      </c>
+      <c r="B55">
         <v>17</v>
       </c>
-      <c r="B55">
+      <c r="C55">
         <v>15</v>
       </c>
-      <c r="C55">
+      <c r="D55">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="D55">
+      <c r="E55">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56">
+        <v>56</v>
+      </c>
+      <c r="B56">
         <v>17</v>
       </c>
-      <c r="B56">
+      <c r="C56">
         <v>19</v>
       </c>
-      <c r="C56">
+      <c r="D56">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="D56">
+      <c r="E56">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57">
+        <v>57</v>
+      </c>
+      <c r="B57">
         <v>18</v>
       </c>
-      <c r="B57">
+      <c r="C57">
         <v>14</v>
       </c>
-      <c r="C57">
+      <c r="D57">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="D57">
+      <c r="E57">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58">
+        <v>58</v>
+      </c>
+      <c r="B58">
         <v>18</v>
       </c>
-      <c r="B58">
+      <c r="C58">
         <v>16</v>
       </c>
-      <c r="C58">
+      <c r="D58">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="D58">
+      <c r="E58">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59">
+        <v>59</v>
+      </c>
+      <c r="B59">
         <v>18</v>
       </c>
-      <c r="B59">
+      <c r="C59">
         <v>19</v>
       </c>
-      <c r="C59">
+      <c r="D59">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="D59">
+      <c r="E59">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60">
+        <v>60</v>
+      </c>
+      <c r="B60">
         <v>19</v>
       </c>
-      <c r="B60">
+      <c r="C60">
         <v>17</v>
       </c>
-      <c r="C60">
+      <c r="D60">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="D60">
+      <c r="E60">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61">
+        <v>61</v>
+      </c>
+      <c r="B61">
         <v>19</v>
       </c>
-      <c r="B61">
+      <c r="C61">
         <v>18</v>
       </c>
-      <c r="C61">
+      <c r="D61">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="D61">
+      <c r="E61">
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62">
+        <v>62</v>
+      </c>
+      <c r="B62">
         <v>19</v>
       </c>
-      <c r="B62">
+      <c r="C62">
         <v>20</v>
       </c>
-      <c r="C62">
+      <c r="D62">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="D62">
+      <c r="E62">
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63">
+        <v>63</v>
+      </c>
+      <c r="B63">
         <v>19</v>
       </c>
-      <c r="B63">
+      <c r="C63">
         <v>21</v>
       </c>
-      <c r="C63">
+      <c r="D63">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="D63">
+      <c r="E63">
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64">
+        <v>64</v>
+      </c>
+      <c r="B64">
         <v>20</v>
       </c>
-      <c r="B64">
+      <c r="C64">
         <v>19</v>
       </c>
-      <c r="C64">
+      <c r="D64">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="D64">
+      <c r="E64">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65">
+        <v>65</v>
+      </c>
+      <c r="B65">
         <v>20</v>
       </c>
-      <c r="B65">
+      <c r="C65">
         <v>21</v>
       </c>
-      <c r="C65">
+      <c r="D65">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="D65">
+      <c r="E65">
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66">
+        <v>66</v>
+      </c>
+      <c r="B66">
         <v>20</v>
       </c>
-      <c r="B66">
+      <c r="C66">
         <v>23</v>
       </c>
-      <c r="C66">
-        <f t="shared" ref="C66:C76" si="2">A66+1</f>
+      <c r="D66">
+        <f t="shared" ref="D66:D76" si="2">B66+1</f>
         <v>21</v>
       </c>
-      <c r="D66">
-        <f t="shared" ref="D66:D76" si="3">B66+1</f>
+      <c r="E66">
+        <f t="shared" ref="E66:E76" si="3">C66+1</f>
         <v>24</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67">
+        <v>67</v>
+      </c>
+      <c r="B67">
         <v>21</v>
       </c>
-      <c r="B67">
+      <c r="C67">
         <v>14</v>
       </c>
-      <c r="C67">
+      <c r="D67">
         <f t="shared" si="2"/>
         <v>22</v>
       </c>
-      <c r="D67">
+      <c r="E67">
         <f t="shared" si="3"/>
         <v>15</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68">
+        <v>68</v>
+      </c>
+      <c r="B68">
         <v>21</v>
       </c>
-      <c r="B68">
+      <c r="C68">
         <v>19</v>
       </c>
-      <c r="C68">
+      <c r="D68">
         <f t="shared" si="2"/>
         <v>22</v>
       </c>
-      <c r="D68">
+      <c r="E68">
         <f t="shared" si="3"/>
         <v>20</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69">
+        <v>69</v>
+      </c>
+      <c r="B69">
         <v>21</v>
       </c>
-      <c r="B69">
+      <c r="C69">
         <v>20</v>
       </c>
-      <c r="C69">
+      <c r="D69">
         <f t="shared" si="2"/>
         <v>22</v>
       </c>
-      <c r="D69">
+      <c r="E69">
         <f t="shared" si="3"/>
         <v>21</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70">
+        <v>70</v>
+      </c>
+      <c r="B70">
         <v>21</v>
       </c>
-      <c r="B70">
+      <c r="C70">
         <v>22</v>
       </c>
-      <c r="C70">
+      <c r="D70">
         <f t="shared" si="2"/>
         <v>22</v>
       </c>
-      <c r="D70">
+      <c r="E70">
         <f t="shared" si="3"/>
         <v>23</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71">
+        <v>71</v>
+      </c>
+      <c r="B71">
         <v>22</v>
       </c>
-      <c r="B71">
+      <c r="C71">
         <v>13</v>
       </c>
-      <c r="C71">
+      <c r="D71">
         <f t="shared" si="2"/>
         <v>23</v>
       </c>
-      <c r="D71">
+      <c r="E71">
         <f t="shared" si="3"/>
         <v>14</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72">
+        <v>72</v>
+      </c>
+      <c r="B72">
         <v>22</v>
       </c>
-      <c r="B72">
+      <c r="C72">
         <v>21</v>
       </c>
-      <c r="C72">
+      <c r="D72">
         <f t="shared" si="2"/>
         <v>23</v>
       </c>
-      <c r="D72">
+      <c r="E72">
         <f t="shared" si="3"/>
         <v>22</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73">
+        <v>73</v>
+      </c>
+      <c r="B73">
         <v>22</v>
       </c>
-      <c r="B73">
+      <c r="C73">
         <v>23</v>
       </c>
-      <c r="C73">
+      <c r="D73">
         <f t="shared" si="2"/>
         <v>23</v>
       </c>
-      <c r="D73">
+      <c r="E73">
         <f t="shared" si="3"/>
         <v>24</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74">
+        <v>74</v>
+      </c>
+      <c r="B74">
         <v>23</v>
       </c>
-      <c r="B74">
+      <c r="C74">
         <v>12</v>
       </c>
-      <c r="C74">
+      <c r="D74">
         <f t="shared" si="2"/>
         <v>24</v>
       </c>
-      <c r="D74">
+      <c r="E74">
         <f t="shared" si="3"/>
         <v>13</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B75">
         <v>23</v>
       </c>
-      <c r="B75">
+      <c r="C75">
         <v>20</v>
       </c>
-      <c r="C75">
+      <c r="D75">
         <f t="shared" si="2"/>
         <v>24</v>
       </c>
-      <c r="D75">
+      <c r="E75">
         <f t="shared" si="3"/>
         <v>21</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B76">
         <v>23</v>
       </c>
-      <c r="B76">
+      <c r="C76">
         <v>22</v>
       </c>
-      <c r="C76">
+      <c r="D76">
         <f t="shared" si="2"/>
         <v>24</v>
       </c>
-      <c r="D76">
+      <c r="E76">
         <f t="shared" si="3"/>
         <v>23</v>
       </c>
